--- a/maestrolansier.xlsx
+++ b/maestrolansier.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="585">
   <si>
     <t>codart</t>
   </si>
@@ -1773,6 +1773,12 @@
   </si>
   <si>
     <t>ANTISEPTICOS OFTALMICOS</t>
+  </si>
+  <si>
+    <t>Trusomida 2% Soluc. Oftm. Est. Fco. x 5ml</t>
+  </si>
+  <si>
+    <t>TOBRAZOL DX SUSP OFTÁLMICA X 5ML</t>
   </si>
 </sst>
 </file>
@@ -1879,7 +1885,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1907,6 +1913,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2190,13 +2199,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L117"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="7" width="5.28515625" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -5670,7 +5684,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="9"/>
       <c r="C113" s="2"/>
@@ -5688,7 +5702,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="9"/>
       <c r="C114" s="2"/>
@@ -5706,7 +5720,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="9"/>
       <c r="C115" s="2"/>
@@ -5724,7 +5738,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="9"/>
       <c r="C116" s="2"/>
@@ -5742,7 +5756,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="9"/>
       <c r="C117" s="2"/>
@@ -5760,6 +5774,32 @@
         <v>582</v>
       </c>
     </row>
+    <row r="118" spans="1:13" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="9"/>
+      <c r="D118" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="M118"/>
+    </row>
+    <row r="119" spans="1:13" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="9"/>
+      <c r="G119" t="s">
+        <v>584</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M119"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/maestrolansier.xlsx
+++ b/maestrolansier.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="589">
   <si>
     <t>codart</t>
   </si>
@@ -1779,6 +1779,18 @@
   </si>
   <si>
     <t>TOBRAZOL DX SUSP OFTÁLMICA X 5ML</t>
+  </si>
+  <si>
+    <t>CLORIN UNGTO OFTALMICO TUBO X3.5GR</t>
+  </si>
+  <si>
+    <t>FLORIL X12 CJAS X5 OCUVIALES</t>
+  </si>
+  <si>
+    <t>XALOPTIC SR 0,005% SOLUCIÓN OFTÁLMICA X 2.5ML</t>
+  </si>
+  <si>
+    <t>TOBRAZOL DX 3.5G UNG OFT</t>
   </si>
 </sst>
 </file>
@@ -2199,16 +2211,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" topLeftCell="D100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="7" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2625,7 +2640,9 @@
       <c r="D12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" t="s">
+        <v>585</v>
+      </c>
       <c r="F12" s="2" t="s">
         <v>98</v>
       </c>
@@ -5178,7 +5195,9 @@
       <c r="E90" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="F90" s="2"/>
+      <c r="F90" t="s">
+        <v>588</v>
+      </c>
       <c r="G90" t="s">
         <v>527</v>
       </c>
@@ -5800,6 +5819,28 @@
       </c>
       <c r="M119"/>
     </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F120" t="s">
+        <v>586</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H121" t="s">
+        <v>587</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/maestrolansier.xlsx
+++ b/maestrolansier.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="584">
   <si>
     <t>codart</t>
   </si>
@@ -2260,8 +2260,8 @@
   </sheetPr>
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
@@ -4477,6 +4477,9 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="12.75" customHeight="1">
+      <c r="C72" t="s">
+        <v>364</v>
+      </c>
       <c r="H72" s="7" t="s">
         <v>364</v>
       </c>

--- a/maestrolansier.xlsx
+++ b/maestrolansier.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="586">
   <si>
     <t>codart</t>
   </si>
@@ -1784,13 +1784,19 @@
   </si>
   <si>
     <t>CLORIN UNGTO OFTALMICO TUBO X3.5GR</t>
+  </si>
+  <si>
+    <t>Xaloptic SR 0.005% Soluc. Oftalmica Fcox2.5mL</t>
+  </si>
+  <si>
+    <t>S-10 10% SOL OFT EST x 15ml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2258,13 +2264,13 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="5" customWidth="1"/>
@@ -2282,7 +2288,7 @@
     <col min="15" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="12.75" customHeight="1">
+    <row r="1" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2323,7 +2329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="12.75" customHeight="1">
+    <row r="2" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -2338,7 +2344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="12.75" customHeight="1">
+    <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
@@ -2349,7 +2355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="12.75" customHeight="1">
+    <row r="4" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="H4" s="7" t="s">
         <v>15</v>
@@ -2361,7 +2367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="12.75" customHeight="1">
+    <row r="5" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2402,7 +2408,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="12.75" customHeight="1">
+    <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H6" s="7" t="s">
         <v>28</v>
       </c>
@@ -2425,7 +2431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="12.75" customHeight="1">
+    <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -2463,7 +2469,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="12.75" customHeight="1">
+    <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
         <v>39</v>
       </c>
@@ -2486,7 +2492,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="12.75" customHeight="1">
+    <row r="9" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
@@ -2527,7 +2533,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="12.75" customHeight="1">
+    <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="2" t="s">
         <v>52</v>
       </c>
@@ -2550,7 +2556,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="12.75" customHeight="1">
+    <row r="11" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>53</v>
       </c>
@@ -2585,7 +2591,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="12.75" customHeight="1">
+    <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>59</v>
       </c>
@@ -2608,7 +2614,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="12.75" customHeight="1">
+    <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
@@ -2652,7 +2658,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>70</v>
       </c>
@@ -2693,13 +2699,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="12.75" customHeight="1">
+    <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="I15" s="2" t="s">
         <v>71</v>
       </c>
@@ -2716,7 +2719,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="12.75" customHeight="1">
+    <row r="16" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>78</v>
       </c>
@@ -2746,7 +2749,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="12.75" customHeight="1">
+    <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>82</v>
       </c>
@@ -2787,7 +2790,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="12.75" customHeight="1">
+    <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>90</v>
       </c>
@@ -2828,7 +2831,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="12.75" customHeight="1">
+    <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>96</v>
       </c>
@@ -2869,7 +2872,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="12.75" customHeight="1">
+    <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>103</v>
       </c>
@@ -2904,7 +2907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="12.75" customHeight="1">
+    <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H21" s="7" t="s">
         <v>110</v>
       </c>
@@ -2921,7 +2924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="12.75" customHeight="1">
+    <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>111</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="12.75" customHeight="1">
+    <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>118</v>
       </c>
@@ -3003,7 +3006,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="12.75" customHeight="1">
+    <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>128</v>
       </c>
@@ -3044,7 +3047,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="12.75" customHeight="1">
+    <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H25" s="7" t="s">
         <v>136</v>
       </c>
@@ -3055,7 +3058,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="12.75" customHeight="1">
+    <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>138</v>
       </c>
@@ -3099,7 +3102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="12.75" customHeight="1">
+    <row r="27" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>148</v>
       </c>
@@ -3122,7 +3125,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="12.75" customHeight="1">
+    <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>149</v>
       </c>
@@ -3166,13 +3169,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="12.75" customHeight="1">
+    <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="I29" s="6" t="s">
         <v>156</v>
       </c>
@@ -3192,13 +3192,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="12.75" customHeight="1">
+    <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="I30" s="6" t="s">
         <v>156</v>
       </c>
@@ -3218,7 +3215,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="12.75" customHeight="1">
+    <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H31" s="7" t="s">
         <v>159</v>
       </c>
@@ -3232,7 +3229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="12.75" customHeight="1">
+    <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>160</v>
       </c>
@@ -3258,7 +3255,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="12.75" customHeight="1">
+    <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H33" s="7" t="s">
         <v>160</v>
       </c>
@@ -3269,7 +3266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="12.75" customHeight="1">
+    <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>165</v>
       </c>
@@ -3310,7 +3307,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="12.75" customHeight="1">
+    <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>173</v>
       </c>
@@ -3351,13 +3348,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="12.75" customHeight="1">
+    <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H36" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="I36" s="2" t="s">
         <v>180</v>
       </c>
@@ -3374,7 +3368,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="12.75" customHeight="1">
+    <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>182</v>
       </c>
@@ -3415,10 +3409,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H38" s="7" t="s">
-        <v>188</v>
-      </c>
+    <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I38" s="2" t="s">
         <v>188</v>
       </c>
@@ -3435,7 +3426,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="12.75" customHeight="1">
+    <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F39" s="12" t="s">
         <v>189</v>
       </c>
@@ -3452,7 +3443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="12.75" customHeight="1">
+    <row r="40" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>190</v>
       </c>
@@ -3493,7 +3484,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="12.75" customHeight="1">
+    <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>196</v>
       </c>
@@ -3534,7 +3525,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="12.75" customHeight="1">
+    <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>205</v>
       </c>
@@ -3575,13 +3566,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="12.75" customHeight="1">
+    <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F43" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H43" s="7" t="s">
-        <v>212</v>
-      </c>
       <c r="I43" s="2" t="s">
         <v>212</v>
       </c>
@@ -3598,13 +3586,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="12.75" customHeight="1">
+    <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F44" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H44" s="7" t="s">
-        <v>212</v>
-      </c>
       <c r="I44" s="2" t="s">
         <v>212</v>
       </c>
@@ -3621,7 +3606,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="12.75" customHeight="1">
+    <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>215</v>
       </c>
@@ -3665,13 +3650,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="12.75" customHeight="1">
+    <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F46" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="H46" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="I46" s="6" t="s">
         <v>222</v>
       </c>
@@ -3691,7 +3673,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="12.75" customHeight="1">
+    <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H47" s="7" t="s">
         <v>224</v>
       </c>
@@ -3711,7 +3693,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="12.75" customHeight="1">
+    <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>227</v>
       </c>
@@ -3752,7 +3734,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="12.75" customHeight="1">
+    <row r="49" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="2" t="s">
         <v>235</v>
       </c>
@@ -3778,7 +3760,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="12.75" customHeight="1">
+    <row r="50" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
         <v>237</v>
       </c>
@@ -3813,7 +3795,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="12.75" customHeight="1">
+    <row r="51" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>243</v>
       </c>
@@ -3854,7 +3836,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="12.75" customHeight="1">
+    <row r="52" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>251</v>
       </c>
@@ -3895,13 +3877,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="12.75" customHeight="1">
+    <row r="53" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F53" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="H53" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="I53" s="2" t="s">
         <v>258</v>
       </c>
@@ -3918,7 +3897,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="12.75" customHeight="1">
+    <row r="54" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>260</v>
       </c>
@@ -3959,7 +3938,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="12.75" customHeight="1">
+    <row r="55" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>268</v>
       </c>
@@ -4000,7 +3979,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="12.75" customHeight="1">
+    <row r="56" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H56" s="7" t="s">
         <v>274</v>
       </c>
@@ -4011,7 +3990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="12.75" customHeight="1">
+    <row r="57" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>275</v>
       </c>
@@ -4052,7 +4031,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="12.75" customHeight="1">
+    <row r="58" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>283</v>
       </c>
@@ -4093,7 +4072,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="12.75" customHeight="1">
+    <row r="59" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>291</v>
       </c>
@@ -4134,7 +4113,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="12.75" customHeight="1">
+    <row r="60" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>299</v>
       </c>
@@ -4175,7 +4154,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="12.75" customHeight="1">
+    <row r="61" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>307</v>
       </c>
@@ -4216,7 +4195,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="12.75" customHeight="1">
+    <row r="62" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>315</v>
       </c>
@@ -4257,7 +4236,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="12.75" customHeight="1">
+    <row r="63" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>323</v>
       </c>
@@ -4298,7 +4277,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="12.75" customHeight="1">
+    <row r="64" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H64" s="7" t="s">
         <v>333</v>
       </c>
@@ -4309,7 +4288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="12.75" customHeight="1">
+    <row r="65" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>334</v>
       </c>
@@ -4350,7 +4329,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="12.75" customHeight="1">
+    <row r="66" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>342</v>
       </c>
@@ -4394,7 +4373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="12.75" customHeight="1">
+    <row r="67" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H67" s="7" t="s">
         <v>350</v>
       </c>
@@ -4411,7 +4390,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="12.75" customHeight="1">
+    <row r="68" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H68" s="7" t="s">
         <v>353</v>
       </c>
@@ -4422,7 +4401,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="12.75" customHeight="1">
+    <row r="69" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H69" s="7" t="s">
         <v>354</v>
       </c>
@@ -4439,7 +4418,10 @@
         <v>357</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="12.75" customHeight="1">
+    <row r="70" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>358</v>
+      </c>
       <c r="H70" s="7" t="s">
         <v>358</v>
       </c>
@@ -4456,7 +4438,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="12.75" customHeight="1">
+    <row r="71" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>361</v>
       </c>
@@ -4476,7 +4458,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="12.75" customHeight="1">
+    <row r="72" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>364</v>
       </c>
@@ -4496,7 +4478,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="12.75" customHeight="1">
+    <row r="73" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>367</v>
       </c>
@@ -4537,7 +4519,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="12.75" customHeight="1">
+    <row r="74" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D74" s="2" t="s">
         <v>377</v>
       </c>
@@ -4557,16 +4539,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="12.75" customHeight="1">
+    <row r="75" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D75" s="2" t="s">
         <v>381</v>
       </c>
       <c r="G75" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="H75" s="7" t="s">
-        <v>380</v>
-      </c>
       <c r="I75" s="2" t="s">
         <v>380</v>
       </c>
@@ -4574,7 +4553,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="12.75" customHeight="1">
+    <row r="76" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>383</v>
       </c>
@@ -4615,7 +4594,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="12.75" customHeight="1">
+    <row r="77" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>391</v>
       </c>
@@ -4650,7 +4629,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="12.75" customHeight="1">
+    <row r="78" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>398</v>
       </c>
@@ -4691,7 +4670,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="12.75" customHeight="1">
+    <row r="79" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>406</v>
       </c>
@@ -4732,7 +4711,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="12.75" customHeight="1">
+    <row r="80" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>414</v>
       </c>
@@ -4770,18 +4749,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="12.75" customHeight="1">
+    <row r="81" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D81" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="H81" s="7" t="s">
-        <v>419</v>
-      </c>
       <c r="I81" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="12.75" customHeight="1">
+    <row r="82" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>421</v>
       </c>
@@ -4822,7 +4798,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="12.75" customHeight="1">
+    <row r="83" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>429</v>
       </c>
@@ -4863,7 +4839,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="12.75" customHeight="1">
+    <row r="84" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>437</v>
       </c>
@@ -4904,7 +4880,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="12.75" customHeight="1">
+    <row r="85" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>443</v>
       </c>
@@ -4945,7 +4921,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="12.75" customHeight="1">
+    <row r="86" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>451</v>
       </c>
@@ -4986,7 +4962,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="12.75" customHeight="1">
+    <row r="87" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>458</v>
       </c>
@@ -5027,13 +5003,10 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="12.75" customHeight="1">
+    <row r="88" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F88" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="H88" s="7" t="s">
-        <v>465</v>
-      </c>
       <c r="I88" s="2" t="s">
         <v>465</v>
       </c>
@@ -5050,7 +5023,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="12.75" customHeight="1">
+    <row r="89" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>467</v>
       </c>
@@ -5091,14 +5064,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="12.75" customHeight="1">
+    <row r="90" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D90" s="10"/>
       <c r="F90" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="H90" s="7" t="s">
-        <v>474</v>
-      </c>
       <c r="I90" s="2" t="s">
         <v>474</v>
       </c>
@@ -5115,13 +5085,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="12.75" customHeight="1">
+    <row r="91" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F91" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="H91" s="7" t="s">
-        <v>474</v>
-      </c>
       <c r="I91" s="2" t="s">
         <v>474</v>
       </c>
@@ -5138,13 +5105,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="12.75" customHeight="1">
+    <row r="92" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F92" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="H92" s="7" t="s">
-        <v>474</v>
-      </c>
       <c r="I92" s="2" t="s">
         <v>474</v>
       </c>
@@ -5161,13 +5125,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="12.75" customHeight="1">
+    <row r="93" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F93" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="H93" s="7" t="s">
-        <v>474</v>
-      </c>
       <c r="I93" s="2" t="s">
         <v>474</v>
       </c>
@@ -5184,7 +5145,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="12.75" customHeight="1">
+    <row r="94" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" s="2" t="s">
         <v>479</v>
       </c>
@@ -5198,7 +5159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="12.75" customHeight="1">
+    <row r="95" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>480</v>
       </c>
@@ -5239,13 +5200,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="12.75" customHeight="1">
+    <row r="96" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F96" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="H96" s="7" t="s">
-        <v>487</v>
-      </c>
       <c r="I96" s="2" t="s">
         <v>487</v>
       </c>
@@ -5262,7 +5220,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="12.75" customHeight="1">
+    <row r="97" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>489</v>
       </c>
@@ -5303,7 +5261,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="12.75" customHeight="1">
+    <row r="98" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H98" s="7" t="s">
         <v>497</v>
       </c>
@@ -5314,7 +5272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="12.75" customHeight="1">
+    <row r="99" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>498</v>
       </c>
@@ -5355,7 +5313,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="12.75" customHeight="1">
+    <row r="100" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>506</v>
       </c>
@@ -5396,13 +5354,10 @@
         <v>127</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="12.75" customHeight="1">
+    <row r="101" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
         <v>514</v>
       </c>
-      <c r="H101" s="7" t="s">
-        <v>513</v>
-      </c>
       <c r="I101" s="2" t="s">
         <v>513</v>
       </c>
@@ -5413,7 +5368,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="12.75" customHeight="1">
+    <row r="102" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C102" s="2" t="s">
         <v>515</v>
       </c>
@@ -5448,7 +5403,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="12.75" customHeight="1">
+    <row r="103" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>521</v>
       </c>
@@ -5492,7 +5447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="12.75" customHeight="1">
+    <row r="104" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C104" s="8" t="s">
         <v>529</v>
       </c>
@@ -5515,7 +5470,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="12.75" customHeight="1">
+    <row r="105" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>531</v>
       </c>
@@ -5553,13 +5508,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="12.75" customHeight="1">
+    <row r="106" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D106" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="H106" s="7" t="s">
-        <v>537</v>
-      </c>
       <c r="I106" s="2" t="s">
         <v>537</v>
       </c>
@@ -5570,7 +5522,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="12.75" customHeight="1">
+    <row r="107" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C107" s="2" t="s">
         <v>539</v>
       </c>
@@ -5587,7 +5539,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="12.75" customHeight="1">
+    <row r="108" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C108" s="2" t="s">
         <v>541</v>
       </c>
@@ -5616,13 +5568,10 @@
         <v>540</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="12.75" customHeight="1">
+    <row r="109" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F109" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H109" s="7" t="s">
-        <v>541</v>
-      </c>
       <c r="I109" s="2" t="s">
         <v>541</v>
       </c>
@@ -5633,7 +5582,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="12.75" customHeight="1">
+    <row r="110" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H110" s="7" t="s">
         <v>547</v>
       </c>
@@ -5647,7 +5596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="12.75" customHeight="1">
+    <row r="111" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>548</v>
       </c>
@@ -5688,7 +5637,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="12.75" customHeight="1">
+    <row r="112" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H112" s="7" t="s">
         <v>556</v>
       </c>
@@ -5708,7 +5657,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="12.75" customHeight="1">
+    <row r="113" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C113" s="8" t="s">
         <v>557</v>
       </c>
@@ -5740,7 +5689,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="12.75" customHeight="1">
+    <row r="114" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>562</v>
       </c>
@@ -5778,7 +5727,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="12.75" customHeight="1">
+    <row r="115" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>584</v>
+      </c>
       <c r="H115" s="18" t="s">
         <v>569</v>
       </c>
@@ -5798,7 +5750,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="12.75" customHeight="1">
+    <row r="116" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="8"/>
       <c r="C116" s="8" t="s">
         <v>570</v>
@@ -5834,7 +5786,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="12.75" customHeight="1">
+    <row r="117" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H117" s="2" t="s">
         <v>581</v>
       </c>
@@ -5854,7 +5806,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="12.75" customHeight="1">
+    <row r="118" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H118" s="2" t="s">
         <v>582</v>
       </c>
@@ -5872,6 +5824,34 @@
       </c>
       <c r="M118" s="2" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H119" t="s">
+        <v>39</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H120" t="s">
+        <v>585</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/maestrolansier.xlsx
+++ b/maestrolansier.xlsx
@@ -18,7 +18,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MAESTRO LNR'!$A$1:$M$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MAESTRO LNR'!$A$1:$N$120</definedName>
     <definedName name="DOL">#REF!</definedName>
     <definedName name="PRO">'[1]CUADRO2 (2)'!$S$107</definedName>
   </definedNames>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="587">
   <si>
     <t>codart</t>
   </si>
@@ -1790,6 +1790,9 @@
   </si>
   <si>
     <t>S-10 10% SOL OFT EST x 15ml</t>
+  </si>
+  <si>
+    <t>TRUSOMIDA 2% SOL OFT EST x 15ml</t>
   </si>
 </sst>
 </file>
@@ -2264,10 +2267,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="D85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5854,6 +5857,20 @@
         <v>24</v>
       </c>
     </row>
+    <row r="121" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H121" t="s">
+        <v>586</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
